--- a/ADB命令收藏.xlsx
+++ b/ADB命令收藏.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>ADB命令收藏</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>num:</t>
     </r>
     <r>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>x:</t>
     </r>
     <r>
@@ -147,6 +159,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>sx:</t>
     </r>
     <r>
@@ -233,6 +251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>adb install &lt;apk</t>
     </r>
     <r>
@@ -256,6 +280,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>apk</t>
     </r>
     <r>
@@ -311,18 +341,6 @@
     <t>卸载设备上指定App</t>
   </si>
   <si>
-    <r>
-      <t>adb uninstall &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件名</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -330,6 +348,24 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>adb uninstall &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>&gt; 
 adb uninstall -k &lt;</t>
     </r>
@@ -354,6 +390,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件名：软件名称
 如果加</t>
     </r>
@@ -411,6 +453,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>adb shell
 adb shell &lt;command</t>
     </r>
@@ -435,6 +483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -491,6 +545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>adb push &lt;</t>
     </r>
     <r>
@@ -532,6 +592,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>本地路径：</t>
     </r>
     <r>
@@ -598,6 +664,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>adb pull &lt;</t>
     </r>
     <r>
@@ -639,6 +711,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>远程路径：Android端文件的路径
 本地路径：</t>
     </r>
@@ -690,6 +768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>重启设备到</t>
     </r>
     <r>
@@ -717,6 +801,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>重启到</t>
     </r>
     <r>
@@ -770,6 +860,12 @@
     <t>adb remount</t>
   </si>
   <si>
+    <t>设置WIFI</t>
+  </si>
+  <si>
+    <t>http://www.xuebuyuan.com/2106429.html</t>
+  </si>
+  <si>
     <t>KEYCODE_UNKNOWN=0;</t>
   </si>
   <si>
@@ -1011,6 +1107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8.25"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>KEYCODE_FOCUS=80;</t>
     </r>
     <r>
@@ -1055,6 +1157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8.25"/>
+        <color rgb="FF333333"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>KEYCODE_MUTE=91</t>
     </r>
     <r>
@@ -1079,7 +1187,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,13 +1239,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1344,6 +1445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1357,6 +1464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,6 +1523,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1417,6 +1536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,6 +1589,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1471,12 +1602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,31 +1625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,10 +1853,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1764,137 +1865,137 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1946,64 +2047,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2012,7 +2098,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -2364,8 +2450,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" outlineLevelCol="4"/>
@@ -2423,7 +2509,7 @@
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:4">
       <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2434,8 +2520,8 @@
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2455,7 +2541,7 @@
       <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -2478,10 +2564,10 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2492,7 +2578,7 @@
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2509,7 +2595,7 @@
       <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2523,7 +2609,7 @@
       <c r="C11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2534,10 +2620,10 @@
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
@@ -2546,54 +2632,54 @@
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="2" t="s">
@@ -2602,10 +2688,10 @@
       <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
@@ -2614,236 +2700,242 @@
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="40"/>
-      <c r="D20" s="28"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" customHeight="1" spans="4:4">
-      <c r="D21" s="28"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" customHeight="1" spans="4:4">
-      <c r="D22" s="28"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" customHeight="1" spans="4:4">
-      <c r="D23" s="28"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" customHeight="1" spans="4:4">
-      <c r="D24" s="28"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" customHeight="1" spans="4:4">
-      <c r="D25" s="28"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" customHeight="1" spans="4:4">
-      <c r="D26" s="28"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" customHeight="1" spans="4:4">
-      <c r="D27" s="28"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" customHeight="1" spans="4:4">
-      <c r="D28" s="28"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" customHeight="1" spans="4:4">
-      <c r="D29" s="28"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" customHeight="1" spans="4:4">
-      <c r="D30" s="28"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" customHeight="1" spans="4:4">
-      <c r="D31" s="28"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" customHeight="1" spans="4:4">
-      <c r="D32" s="28"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" customHeight="1" spans="4:4">
-      <c r="D33" s="28"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" customHeight="1" spans="4:4">
-      <c r="D34" s="28"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" customHeight="1" spans="4:4">
-      <c r="D35" s="28"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" customHeight="1" spans="4:4">
-      <c r="D36" s="28"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" customHeight="1" spans="4:4">
-      <c r="D37" s="28"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="4:4">
-      <c r="D38" s="28"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="4:4">
-      <c r="D39" s="28"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" customHeight="1" spans="4:4">
-      <c r="D40" s="28"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" customHeight="1" spans="4:4">
-      <c r="D41" s="28"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" customHeight="1" spans="4:4">
-      <c r="D42" s="28"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" customHeight="1" spans="4:4">
-      <c r="D43" s="28"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" customHeight="1" spans="4:4">
-      <c r="D44" s="28"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" customHeight="1" spans="4:4">
-      <c r="D45" s="28"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" customHeight="1" spans="4:4">
-      <c r="D46" s="28"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" customHeight="1" spans="4:4">
-      <c r="D47" s="28"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" customHeight="1" spans="4:4">
-      <c r="D48" s="28"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" customHeight="1" spans="4:4">
-      <c r="D49" s="28"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" customHeight="1" spans="4:4">
-      <c r="D50" s="28"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" customHeight="1" spans="4:4">
-      <c r="D51" s="28"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" customHeight="1" spans="4:4">
-      <c r="D52" s="28"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" customHeight="1" spans="4:4">
-      <c r="D53" s="28"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" customHeight="1" spans="4:4">
-      <c r="D54" s="28"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" customHeight="1" spans="4:4">
-      <c r="D55" s="28"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" customHeight="1" spans="4:4">
-      <c r="D56" s="28"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" customHeight="1" spans="4:4">
-      <c r="D57" s="28"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" customHeight="1" spans="4:4">
-      <c r="D58" s="28"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" customHeight="1" spans="4:4">
-      <c r="D59" s="28"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" customHeight="1" spans="4:4">
-      <c r="D60" s="28"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" customHeight="1" spans="4:4">
-      <c r="D61" s="28"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" customHeight="1" spans="4:4">
-      <c r="D62" s="28"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" customHeight="1" spans="4:4">
-      <c r="D63" s="28"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" customHeight="1" spans="4:4">
-      <c r="D64" s="28"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" customHeight="1" spans="4:4">
-      <c r="D65" s="28"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" customHeight="1" spans="4:4">
-      <c r="D66" s="28"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" customHeight="1" spans="4:4">
-      <c r="D67" s="28"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" customHeight="1" spans="4:4">
-      <c r="D68" s="28"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" customHeight="1" spans="4:4">
-      <c r="D69" s="28"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" customHeight="1" spans="4:4">
-      <c r="D70" s="28"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" customHeight="1" spans="4:4">
-      <c r="D71" s="28"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" customHeight="1" spans="4:4">
-      <c r="D72" s="28"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" customHeight="1" spans="4:4">
-      <c r="D73" s="28"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" customHeight="1" spans="4:4">
-      <c r="D74" s="28"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" customHeight="1" spans="4:4">
-      <c r="D75" s="28"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" customHeight="1" spans="4:4">
-      <c r="D76" s="28"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" customHeight="1" spans="4:4">
-      <c r="D77" s="28"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" customHeight="1" spans="4:4">
-      <c r="D78" s="28"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" customHeight="1" spans="4:4">
-      <c r="D79" s="28"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" customHeight="1" spans="4:4">
-      <c r="D80" s="28"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81" customHeight="1" spans="4:4">
-      <c r="D81" s="28"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" customHeight="1" spans="4:4">
-      <c r="D82" s="28"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" customHeight="1" spans="4:4">
-      <c r="D83" s="28"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84" customHeight="1" spans="4:4">
-      <c r="D84" s="28"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85" customHeight="1" spans="4:4">
-      <c r="D85" s="28"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" customHeight="1" spans="4:4">
-      <c r="D86" s="28"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" customHeight="1" spans="4:4">
-      <c r="D87" s="28"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88" customHeight="1" spans="4:4">
-      <c r="D88" s="28"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89" customHeight="1" spans="4:4">
-      <c r="D89" s="28"/>
+      <c r="D89" s="20"/>
     </row>
     <row r="90" customHeight="1" spans="4:4">
-      <c r="D90" s="28"/>
+      <c r="D90" s="20"/>
     </row>
     <row r="91" customHeight="1" spans="4:4">
-      <c r="D91" s="28"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92" customHeight="1" spans="4:4">
-      <c r="D92" s="28"/>
+      <c r="D92" s="20"/>
     </row>
     <row r="93" customHeight="1" spans="4:4">
-      <c r="D93" s="28"/>
+      <c r="D93" s="20"/>
     </row>
     <row r="94" customHeight="1" spans="4:4">
-      <c r="D94" s="28"/>
+      <c r="D94" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2876,462 +2968,462 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/ADB命令收藏.xlsx
+++ b/ADB命令收藏.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Keyevent事件编号" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>ADB命令收藏</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>http://www.xuebuyuan.com/2106429.html</t>
+  </si>
+  <si>
+    <t>查看当前Activity</t>
+  </si>
+  <si>
+    <t>adb shell dumpsys activity activities</t>
   </si>
   <si>
     <t>KEYCODE_UNKNOWN=0;</t>
@@ -1182,12 +1188,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,10 +1285,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1294,6 +1381,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1302,100 +1405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,31 +1463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,19 +1499,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,91 +1553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,7 +1583,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,6 +1760,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1772,6 +1825,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1787,56 +1849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1853,10 +1865,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1865,137 +1877,137 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2102,6 +2114,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2450,8 +2465,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" outlineLevelCol="4"/>
@@ -2715,7 +2730,13 @@
       <c r="C20" s="35"/>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" customHeight="1" spans="4:4">
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="20"/>
     </row>
     <row r="22" customHeight="1" spans="4:4">
@@ -2968,462 +2989,462 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
